--- a/public/download/member_bulk_demo2.xlsx
+++ b/public/download/member_bulk_demo2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661B1AD4-03CE-432A-ACDF-2CAA7696CEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4A0CB0-3BBB-41BA-839C-CC90144360F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>Candidate's Full Name</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>UTR 332447910318</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>UPI</t>
   </si>
 </sst>
 </file>
@@ -615,24 +624,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -798,8 +808,14 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -963,7 +979,13 @@
         <v>8</v>
       </c>
       <c r="BC2">
-        <v>12345678</v>
+        <v>123456789</v>
+      </c>
+      <c r="BD2">
+        <v>800</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +1000,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/download/member_bulk_demo2.xlsx
+++ b/public/download/member_bulk_demo2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4A0CB0-3BBB-41BA-839C-CC90144360F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F160FA15-F941-4778-B39D-04B86E75BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>Candidate's Full Name</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Known Member Of Digamber Jain Social Group</t>
   </si>
   <si>
-    <t>Agree</t>
-  </si>
-  <si>
     <t>Candidate's Guardian's Name</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>Parvar</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>5'2''</t>
   </si>
   <si>
@@ -267,22 +261,25 @@
     <t>Maheshchand Jain (Tauji), Gurgaon, 9302575585</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Father</t>
   </si>
   <si>
     <t>UTR 332447910318</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Gateway</t>
   </si>
   <si>
     <t>UPI</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>Daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/11/2023 </t>
   </si>
 </sst>
 </file>
@@ -318,8 +315,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="BG3" sqref="BG3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,6 +638,7 @@
     <col min="7" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
@@ -655,7 +654,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -698,135 +697,135 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>86</v>
-      </c>
       <c r="BE1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
       </c>
       <c r="C2">
         <v>7389636168</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>33511</v>
@@ -835,97 +834,82 @@
         <v>9.375E-2</v>
       </c>
       <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>59</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>63</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>64</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>65</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>66</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>68</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" t="s">
         <v>69</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>70</v>
       </c>
-      <c r="T2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>71</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>72</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>73</v>
-      </c>
-      <c r="X2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>75</v>
       </c>
       <c r="Z2">
         <v>800000</v>
       </c>
       <c r="AA2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB2">
         <v>7389636168</v>
       </c>
-      <c r="AC2" t="s">
-        <v>66</v>
-      </c>
       <c r="AD2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AE2">
         <v>150000</v>
       </c>
       <c r="AF2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AL2">
         <v>1</v>
@@ -940,52 +924,43 @@
         <v>1</v>
       </c>
       <c r="AP2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" t="s">
         <v>80</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AV2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW2" t="s">
         <v>81</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AX2" t="s">
         <v>82</v>
       </c>
-      <c r="AS2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>800</v>
       </c>
-      <c r="AY2">
-        <v>45250</v>
-      </c>
-      <c r="AZ2">
-        <v>2</v>
+      <c r="AZ2" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="BA2">
         <v>2</v>
       </c>
       <c r="BB2">
+        <v>2</v>
+      </c>
+      <c r="BC2">
         <v>8</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>123456789</v>
       </c>
-      <c r="BD2">
-        <v>800</v>
-      </c>
       <c r="BE2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
